--- a/biology/Botanique/Silene_paradoxa/Silene_paradoxa.xlsx
+++ b/biology/Botanique/Silene_paradoxa/Silene_paradoxa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le silène paradoxal (Silene paradoxa) est une plante herbacée vivace de la famille des Caryophyllacées.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante assez haute (20 à 50 cm) parfois plus, très visqueuse au sommet, à fleurs blanches au-dessus, jaunâtres en dessous, aux pétales échancrés jusqu'au tiers de leur longueur environ (diamètre de la corolle : 15 à 25 mm). Le calice est étroit, très allongé.
 </t>
@@ -542,7 +556,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Europe du Sud : Italie, Dalmatie, Serbie, Herzégovine, Macédoine, Grèce. En France : Hautes-Alpes, Basses-Alpes, Drôme, Vaucluse, Gard ; Corse.
 </t>
@@ -573,7 +589,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Pelouses sèches et rocailles des régions montagneuses jusqu'à 2 200 m d'altitude. Floraison de juillet à septembre.
 Sur les autres projets Wikimedia :
